--- a/xlsx/nor_oda_multipartners_oneyear.xlsx
+++ b/xlsx/nor_oda_multipartners_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Ti største multilaterale partnere i norsk bistand, 2023, fordelt på Øremerket støtte og kjernestøtte. Beløp er utbetalinger i NOK mill.</t>
+          <t>Arkfane Figurdata viser data for Ti største multilaterale partnere i norsk bistand, 2024, fordelt på Øremerket støtte og kjernestøtte. Beløp er utbetalinger i NOK mill.</t>
         </is>
       </c>
     </row>
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>IBRD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -414,52 +414,52 @@
         </is>
       </c>
       <c r="C2">
-        <v>1526.312</v>
+        <v>3764.95917897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>UNDP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C3">
-        <v>1343.956667</v>
+        <v>1867.76155949</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IBRD</t>
+          <t>UNDP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C4">
-        <v>2523.392</v>
+        <v>428.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IBRD</t>
+          <t>WFP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C5">
-        <v>132.5005014</v>
+        <v>414.274057</v>
       </c>
     </row>
     <row r="6">
@@ -470,11 +470,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C6">
-        <v>863.650302</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7">
@@ -485,41 +485,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C7">
-        <v>430</v>
+        <v>857.744917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WFP</t>
+          <t>UNICEF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Øremerket nødhjelp</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C8">
-        <v>1148.709</v>
+        <v>455.53804835</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EBRD</t>
+          <t>UNICEF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C9">
-        <v>2020</v>
+        <v>480.6</v>
       </c>
     </row>
     <row r="10">
@@ -530,17 +530,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C10">
-        <v>499.226837</v>
+        <v>696.75268863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UNICEF</t>
+          <t>GAVI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -549,37 +549,37 @@
         </is>
       </c>
       <c r="C11">
-        <v>466.8</v>
+        <v>1404.085</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UNICEF</t>
+          <t>UNHCR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Øremerket nødhjelp</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C12">
-        <v>762.99944055</v>
+        <v>25.717529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>World Bank</t>
+          <t>UNHCR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C13">
-        <v>1535.99344895</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14">
@@ -590,17 +590,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>710.279999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UNHCR</t>
+          <t>IDA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="C15">
-        <v>630</v>
+        <v>1347.266667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UNHCR</t>
+          <t>UNFPA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Øremerket nødhjelp</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C16">
-        <v>668.925</v>
+        <v>328.95556735</v>
       </c>
     </row>
     <row r="17">
@@ -635,11 +635,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C17">
-        <v>267.0338469</v>
+        <v>589.6</v>
       </c>
     </row>
     <row r="18">
@@ -650,71 +650,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C18">
-        <v>589.6</v>
+        <v>187.59672442</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UNFPA</t>
+          <t>World Bank</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Øremerket nødhjelp</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C19">
-        <v>355.892973</v>
+        <v>1069.0625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MPTF Office</t>
+          <t>AFDF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C20">
-        <v>1107.73996531</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MPTF Office</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Øremerket nødhjelp</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>63.55</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GAVI</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Kjernestøtte</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>1069.753</v>
+        <v>865.774138</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_multipartners_oneyear.xlsx
+++ b/xlsx/nor_oda_multipartners_oneyear.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>1867.76155949</v>
+        <v>1867.91531165</v>
       </c>
     </row>
     <row r="4">
@@ -450,16 +450,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WFP</t>
+          <t>UNDP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C5">
-        <v>414.274057</v>
+        <v>-0.15375216</v>
       </c>
     </row>
     <row r="6">
@@ -470,11 +470,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C6">
-        <v>430</v>
+        <v>414.274057</v>
       </c>
     </row>
     <row r="7">
@@ -485,26 +485,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Øremerket nødhjelp</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C7">
-        <v>857.744917</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UNICEF</t>
+          <t>WFP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C8">
-        <v>455.53804835</v>
+        <v>857.744917</v>
       </c>
     </row>
     <row r="9">
@@ -515,11 +515,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C9">
-        <v>480.6</v>
+        <v>455.53804835</v>
       </c>
     </row>
     <row r="10">
@@ -530,41 +530,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Øremerket nødhjelp</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C10">
-        <v>696.75268863</v>
+        <v>480.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GAVI</t>
+          <t>UNICEF</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C11">
-        <v>1404.085</v>
+        <v>696.75268863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UNHCR</t>
+          <t>GAVI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C12">
-        <v>25.717529</v>
+        <v>1404.085</v>
       </c>
     </row>
     <row r="13">
@@ -575,11 +575,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C13">
-        <v>630</v>
+        <v>25.717529</v>
       </c>
     </row>
     <row r="14">
@@ -590,41 +590,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Øremerket nødhjelp</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C14">
-        <v>710.279999</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>UNHCR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C15">
-        <v>1347.266667</v>
+        <v>710.279999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UNFPA</t>
+          <t>IDA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C16">
-        <v>328.95556735</v>
+        <v>1347.266667</v>
       </c>
     </row>
     <row r="17">
@@ -635,11 +635,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C17">
-        <v>589.6</v>
+        <v>328.95556735</v>
       </c>
     </row>
     <row r="18">
@@ -650,40 +650,55 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Øremerket nødhjelp</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C18">
-        <v>187.59672442</v>
+        <v>589.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>World Bank</t>
+          <t>UNFPA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C19">
-        <v>1069.0625</v>
+        <v>187.59672442</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>World Bank</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Øremerket langsiktig støtte</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1069.0625</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>AFDF</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Kjernestøtte</t>
         </is>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>865.774138</v>
       </c>
     </row>

--- a/xlsx/nor_oda_multipartners_oneyear.xlsx
+++ b/xlsx/nor_oda_multipartners_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Ti største multilaterale partnere i norsk bistand, 2024, fordelt på Øremerket støtte og kjernestøtte. Beløp er utbetalinger i NOK mill.</t>
+          <t>Arkfane Figurdata viser data for Ti største multilaterale partnere i norsk bistand, 2024, fordelt på øremerket støtte og kjernestøtte. Beløp er utbetalinger i NOK mill.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_multipartners_oneyear.xlsx
+++ b/xlsx/nor_oda_multipartners_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Ti største multilaterale partnere i norsk bistand, 2024, fordelt på øremerket støtte og kjernestøtte. Beløp er utbetalinger i NOK mill.</t>
+          <t>Arkfane Figurdata inneholder data om ti største multilaterale partnere i norsk bistand. 2024. Fordelt på øremerket støtte og kjernestøtte. Beløp er utbetalinger i NOK mill.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_multipartners_oneyear.xlsx
+++ b/xlsx/nor_oda_multipartners_oneyear.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -388,7 +388,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>agreement_partner_short</t>
+          <t>agreement_partner_adj</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -405,37 +405,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IBRD</t>
+          <t>AFDF - African Development Fund</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C2">
-        <v>3764.95917897</v>
+        <v>865.774138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UNDP</t>
+          <t>GAVI - Global Alliance for Vaccines and Immunization</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C3">
-        <v>1867.91531165</v>
+        <v>1404.085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UNDP</t>
+          <t>IFFIm - International Finance Facility for Immunisation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -444,58 +444,58 @@
         </is>
       </c>
       <c r="C4">
-        <v>428.4</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UNDP</t>
+          <t>IFFIm - International Finance Facility for Immunisation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Øremerket nødhjelp</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C5">
-        <v>-0.15375216</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WFP</t>
+          <t>UNDP - UN Development Programme</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C6">
-        <v>414.274057</v>
+        <v>428.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WFP</t>
+          <t>UNDP - UN Development Programme</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C7">
-        <v>430</v>
+        <v>1867.91531165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WFP</t>
+          <t>UNDP - UN Development Programme</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -504,43 +504,43 @@
         </is>
       </c>
       <c r="C8">
-        <v>857.744917</v>
+        <v>-0.15375216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UNICEF</t>
+          <t>UNFPA - UN Population Fund</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C9">
-        <v>455.53804835</v>
+        <v>589.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UNICEF</t>
+          <t>UNFPA - UN Population Fund</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C10">
-        <v>480.6</v>
+        <v>328.95556735</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UNICEF</t>
+          <t>UNFPA - UN Population Fund</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>696.75268863</v>
+        <v>187.59672442</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GAVI</t>
+          <t>UNHCR - UN Office of the UN High Commissioner for Refugees</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>1404.085</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UNHCR</t>
+          <t>UNHCR - UN Office of the UN High Commissioner for Refugees</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -585,67 +585,67 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UNHCR</t>
+          <t>UNHCR - UN Office of the UN High Commissioner for Refugees</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C14">
-        <v>630</v>
+        <v>710.279999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UNHCR</t>
+          <t>UNICEF - United Nations Children's Fund</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Øremerket nødhjelp</t>
+          <t>Kjernestøtte</t>
         </is>
       </c>
       <c r="C15">
-        <v>710.279999</v>
+        <v>480.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IDA</t>
+          <t>UNICEF - United Nations Children's Fund</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kjernestøtte</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C16">
-        <v>1347.266667</v>
+        <v>455.53804835</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UNFPA</t>
+          <t>UNICEF - United Nations Children's Fund</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C17">
-        <v>328.95556735</v>
+        <v>696.75268863</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UNFPA</t>
+          <t>UNOCHA - UN Office of Co-ordination of Humanitarian Affairs</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -654,43 +654,43 @@
         </is>
       </c>
       <c r="C18">
-        <v>589.6</v>
+        <v>150.4738</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UNFPA</t>
+          <t>UNOCHA - UN Office of Co-ordination of Humanitarian Affairs</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Øremerket nødhjelp</t>
+          <t>Øremerket langsiktig støtte</t>
         </is>
       </c>
       <c r="C19">
-        <v>187.59672442</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>World Bank</t>
+          <t>UNOCHA - UN Office of Co-ordination of Humanitarian Affairs</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Øremerket langsiktig støtte</t>
+          <t>Øremerket nødhjelp</t>
         </is>
       </c>
       <c r="C20">
-        <v>1069.0625</v>
+        <v>659.562078</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AFDF</t>
+          <t>WFP - World Food Programme</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -699,7 +699,67 @@
         </is>
       </c>
       <c r="C21">
-        <v>865.774138</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WFP - World Food Programme</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Øremerket langsiktig støtte</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>414.274057</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WFP - World Food Programme</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Øremerket nødhjelp</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>857.744917</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>World Bank Group</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Kjernestøtte</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1415.79386975</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>World Bank Group</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Øremerket langsiktig støtte</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>5154.02266773</v>
       </c>
     </row>
   </sheetData>
